--- a/supermarkt_sales.xlsx
+++ b/supermarkt_sales.xlsx
@@ -4101,7 +4101,7 @@
   <dimension ref="B1:R1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4116,7 +4116,7 @@
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -4452,7 +4452,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O9">
         <v>604.16999999999996</v>
@@ -4505,7 +4505,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O10">
         <v>597.73</v>
@@ -4558,7 +4558,7 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O11">
         <v>413.04</v>
@@ -4611,7 +4611,7 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O12">
         <v>735.6</v>
@@ -4726,7 +4726,7 @@
         <v>4.7619047620000003</v>
       </c>
       <c r="Q14">
-        <v>8.2260000000000009</v>
+        <v>48.753999999999998</v>
       </c>
       <c r="R14">
         <v>5.9</v>
@@ -4876,7 +4876,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O17">
         <v>234.75</v>
@@ -5238,7 +5238,7 @@
         <v>4.03</v>
       </c>
       <c r="K24">
-        <v>84.63</v>
+        <v>584.63</v>
       </c>
       <c r="L24" s="1">
         <v>44266</v>
@@ -5300,7 +5300,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O25">
         <v>430.2</v>
@@ -5353,7 +5353,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="N26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O26">
         <v>263.94</v>
@@ -5397,7 +5397,7 @@
         <v>3.32</v>
       </c>
       <c r="K27">
-        <v>69.72</v>
+        <v>569.72</v>
       </c>
       <c r="L27" s="1">
         <v>44270</v>
@@ -9275,7 +9275,7 @@
         <v>0.85972222222222217</v>
       </c>
       <c r="N100" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O100">
         <v>97.16</v>
@@ -9328,7 +9328,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N101" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O101">
         <v>878.7</v>
@@ -45539,7 +45539,7 @@
         <v>39.541499999999999</v>
       </c>
       <c r="R784">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="785" spans="2:18" x14ac:dyDescent="0.25">
@@ -46758,7 +46758,7 @@
         <v>23.586500000000001</v>
       </c>
       <c r="R807">
-        <v>6.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="808" spans="2:18" x14ac:dyDescent="0.25">
@@ -47076,7 +47076,7 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="R813">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="814" spans="2:18" x14ac:dyDescent="0.25">
@@ -47288,7 +47288,7 @@
         <v>16.2425</v>
       </c>
       <c r="R817">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="818" spans="2:18" x14ac:dyDescent="0.25">
@@ -48083,7 +48083,7 @@
         <v>6.1920000000000002</v>
       </c>
       <c r="R832">
-        <v>8.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="833" spans="2:18" x14ac:dyDescent="0.25">
@@ -50942,7 +50942,7 @@
         <v>4.7619047620000003</v>
       </c>
       <c r="Q886">
-        <v>4.0720000000000001</v>
+        <v>864.072</v>
       </c>
       <c r="R886">
         <v>9.5</v>
@@ -52161,7 +52161,7 @@
         <v>4.7619047620000003</v>
       </c>
       <c r="Q909">
-        <v>5.8319999999999999</v>
+        <v>85.831999999999994</v>
       </c>
       <c r="R909">
         <v>6</v>
@@ -53468,7 +53468,7 @@
         <v>2.5310000000000001</v>
       </c>
       <c r="K934">
-        <v>53.151000000000003</v>
+        <v>553.15099999999995</v>
       </c>
       <c r="L934" s="1">
         <v>44257</v>
@@ -55023,7 +55023,7 @@
         <v>4.7619047620000003</v>
       </c>
       <c r="Q963">
-        <v>7.9</v>
+        <v>14.932</v>
       </c>
       <c r="R963">
         <v>7.8</v>
@@ -55164,7 +55164,7 @@
         <v>2.089</v>
       </c>
       <c r="K966">
-        <v>43.869</v>
+        <v>843.86900000000003</v>
       </c>
       <c r="L966" s="1">
         <v>44232</v>
@@ -55376,7 +55376,7 @@
         <v>3.827</v>
       </c>
       <c r="K970">
-        <v>80.367000000000004</v>
+        <v>780.36699999999996</v>
       </c>
       <c r="L970" s="1">
         <v>44257</v>
@@ -55553,7 +55553,7 @@
         <v>4.7619047620000003</v>
       </c>
       <c r="Q973">
-        <v>2.37</v>
+        <v>82.37</v>
       </c>
       <c r="R973">
         <v>9.5</v>
@@ -57090,7 +57090,7 @@
         <v>4.7619047620000003</v>
       </c>
       <c r="Q1002">
-        <v>1.5920000000000001</v>
+        <v>111.592</v>
       </c>
       <c r="R1002">
         <v>7.7</v>
@@ -57125,7 +57125,7 @@
         <v>3.2909999999999999</v>
       </c>
       <c r="K1003">
-        <v>69.111000000000004</v>
+        <v>269.11099999999999</v>
       </c>
       <c r="L1003" s="1">
         <v>44249</v>
